--- a/利润表/688608.xlsx
+++ b/利润表/688608.xlsx
@@ -734,53 +734,55 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2018-12-31 00:00:00</t>
+          <t>2019-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>1770438.92</v>
+        <v>67378816.54000001</v>
       </c>
       <c r="P2" t="n">
-        <v>329955558.5</v>
+        <v>648841600.25</v>
       </c>
       <c r="Q2" t="n">
-        <v>327059822.75</v>
+        <v>590708417.79</v>
       </c>
       <c r="R2" t="n">
-        <v>43.3682857121</v>
+        <v>80.6117342152</v>
       </c>
       <c r="S2" t="n">
-        <v>210546728.43</v>
+        <v>404321344.3</v>
       </c>
       <c r="T2" t="n">
-        <v>210546728.43</v>
+        <v>404321344.3</v>
       </c>
       <c r="U2" t="n">
-        <v>309.6234735618</v>
+        <v>92.03401891590001</v>
       </c>
       <c r="V2" t="n">
-        <v>7066671.09</v>
+        <v>8145489.89</v>
       </c>
       <c r="W2" t="n">
-        <v>23867609.64</v>
+        <v>45910684.99</v>
       </c>
       <c r="X2" t="n">
-        <v>-1808943.8</v>
+        <v>-511491.1</v>
       </c>
       <c r="Y2" t="n">
-        <v>3031554.92</v>
+        <v>68698127.58</v>
       </c>
       <c r="Z2" t="n">
-        <v>1770438.92</v>
-      </c>
-      <c r="AA2" t="inlineStr"/>
+        <v>68640217.65000001</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1261401.11</v>
+      </c>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
       <c r="AD2" t="inlineStr"/>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="n">
-        <v>147541.91</v>
+        <v>479523.22</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
@@ -791,19 +793,19 @@
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
       <c r="AP2" t="n">
-        <v>290.1766026623</v>
+        <v>96.645149183</v>
       </c>
       <c r="AQ2" t="n">
-        <v>102.111570063824</v>
+        <v>2166.10202991144</v>
       </c>
       <c r="AR2" t="n">
-        <v>101.232930315064</v>
+        <v>3705.76905415071</v>
       </c>
       <c r="AS2" t="n">
-        <v>1501274.92</v>
+        <v>54784800.87</v>
       </c>
       <c r="AT2" t="n">
-        <v>105.453014007642</v>
+        <v>3549.21835901981</v>
       </c>
     </row>
   </sheetData>
